--- a/Documents/Таблицы внутреннего перемещения.xlsx
+++ b/Documents/Таблицы внутреннего перемещения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\IDS RailWay\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532B709-4442-48A1-8C6F-0234201A6A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A2413-1A10-4882-99C3-5D9CA3E72BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E51CBB86-B8F8-472E-9C89-3F4D9548AFD3}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D776C009-5329-45FC-9CD3-F33847407D67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E2C63-89BB-4F8E-B771-C1511B4E1CE3}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
